--- a/medicine/Psychotrope/Colli_Orientali_del_Friuli_Cialla_Schioppettino/Colli_Orientali_del_Friuli_Cialla_Schioppettino.xlsx
+++ b/medicine/Psychotrope/Colli_Orientali_del_Friuli_Cialla_Schioppettino/Colli_Orientali_del_Friuli_Cialla_Schioppettino.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Colli Orientali del Friuli Cialla Schioppettino est un vin rouge italien de la région Frioul-Vénétie Julienne doté d'une appellation DOC depuis le 20 juillet 1970. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. Les vignobles autorisés se situent au nord - est de la province d'Udine dans les communes de Tarcento, Nimis, Faedis, Povoletto, Attimis, Torreano, San Pietro al Natisone, Prepotto, Premariacco, Buttrio, Manzano, San Giovanni al Natisone et Corno di Rosazzo.
@@ -514,7 +526,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur: rouge rubis intense tendant vers un rouge grenat
 odeur: délicat, caractéristique avec des arômes de petits fruits rouges
@@ -548,7 +562,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres :
 Udine (1996/97) 140,0
